--- a/powerbi_with_ai/project_data.xlsx
+++ b/powerbi_with_ai/project_data.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
   <si>
     <t xml:space="preserve">Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P/A</t>
   </si>
   <si>
     <t xml:space="preserve">Revenue</t>
@@ -377,7 +380,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -389,20 +392,22 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
@@ -412,7 +417,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>98000</v>
@@ -420,13 +425,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>150000</v>
@@ -436,7 +441,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>155000</v>
@@ -444,13 +449,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>200000</v>
@@ -460,7 +465,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>205000</v>
@@ -468,13 +473,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>180000</v>
@@ -484,7 +489,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>175000</v>
@@ -492,13 +497,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>250000</v>
@@ -508,7 +513,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>260000</v>
@@ -516,13 +521,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>300000</v>
@@ -532,7 +537,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>290000</v>
@@ -540,13 +545,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>280000</v>
@@ -556,7 +561,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>285000</v>
@@ -564,13 +569,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>320000</v>
@@ -580,7 +585,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>325000</v>
@@ -588,13 +593,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>270000</v>
@@ -604,7 +609,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>268000</v>
@@ -612,13 +617,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>350000</v>
@@ -628,7 +633,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>360000</v>

--- a/powerbi_with_ai/project_data.xlsx
+++ b/powerbi_with_ai/project_data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Projects" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -92,10 +92,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -120,6 +120,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -172,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,8 +189,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,195 +213,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.85"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,244 +243,249 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100000</v>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>500000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>98000</v>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>398000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>155000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>205000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>180000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>175000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>250000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>260000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>300000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>290000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>280000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>285000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>320000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>325000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>268000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>350000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>360000</v>
       </c>
     </row>
